--- a/企画書_タピる？_20190617.xlsx
+++ b/企画書_タピる？_20190617.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fukuda\Desktop\勝部先生_月曜日\チーム制作\gameplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fukuda\Desktop\勝部先生_月曜日\チーム制作\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>チーム情報</t>
   </si>
@@ -92,16 +92,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>差し入れ</t>
-    <rPh sb="0" eb="1">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>FukudaTsubasa</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -121,10 +111,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>スクラムマスター</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <r>
       <t>K</t>
     </r>
@@ -136,10 +122,6 @@
       </rPr>
       <t>TK33</t>
     </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>サーバ</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -149,170 +131,6 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>オウエン</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>プロダクトオーナー</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>榎本</t>
-    <rPh sb="0" eb="2">
-      <t>エノモト</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="HGS明朝B"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ーゲームルールー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="HGS明朝B"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>画面に映っている風船（仮）をクリックして膨らませて先に破裂させた人が勝ち
-ー</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="HGS明朝B"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">簡単な仕様ー
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="HGS明朝B"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>２人で遊ぶゲームです。
-画面上にそれぞれの風船があり、クリックするとその風船が膨れ上がります。
-風船の膨れ具合が限界まで達すると破裂します。
-先に風船を破裂させた方が勝ちです。</t>
-    </r>
-    <rPh sb="68" eb="70">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>ウツ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>フウセン</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="88" eb="89">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>ハレツ</t>
-    </rPh>
-    <rPh sb="100" eb="101">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>カンタン</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>リ</t>
-    </rPh>
-    <rPh sb="117" eb="118">
-      <t>アソ</t>
-    </rPh>
-    <rPh sb="127" eb="130">
-      <t>ガメンジョウ</t>
-    </rPh>
-    <rPh sb="136" eb="138">
-      <t>フウセン</t>
-    </rPh>
-    <rPh sb="151" eb="153">
-      <t>フウセン</t>
-    </rPh>
-    <rPh sb="154" eb="155">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="156" eb="157">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="163" eb="165">
-      <t>フウセン</t>
-    </rPh>
-    <rPh sb="166" eb="167">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="168" eb="170">
-      <t>グアイ</t>
-    </rPh>
-    <rPh sb="171" eb="173">
-      <t>ゲンカイ</t>
-    </rPh>
-    <rPh sb="175" eb="176">
-      <t>タッ</t>
-    </rPh>
-    <rPh sb="179" eb="181">
-      <t>ハレツ</t>
-    </rPh>
-    <rPh sb="187" eb="188">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="189" eb="191">
-      <t>フウセン</t>
-    </rPh>
-    <rPh sb="192" eb="194">
-      <t>ハレツ</t>
-    </rPh>
-    <rPh sb="197" eb="198">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="199" eb="200">
-      <t>カ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -1088,10 +906,171 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>G016A1318</t>
-  </si>
-  <si>
     <t>https://github.com/KTK33/Tapiru.git</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>スクラムマスター</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>プロダクトオーナー</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="HGS明朝B"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ーゲームルールー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="HGS明朝B"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>画面に映っている風船（仮）をクリックして膨らませて先に破裂させた人が勝ち
+ー</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="HGS明朝B"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">簡単な仕様ー
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="HGS明朝B"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>２人で遊ぶゲームです。
+画面上にそれぞれの風船があり、スペースキーを押すとするとその風船が膨れ上がります。
+風船の膨れ具合が限界まで達すると破裂します。
+先に風船を破裂させた方が勝ちです。</t>
+    </r>
+    <rPh sb="68" eb="70">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ウツ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>フウセン</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ハレツ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>リ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="127" eb="130">
+      <t>ガメンジョウ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>フウセン</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>フウセン</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>フウセン</t>
+    </rPh>
+    <rPh sb="172" eb="173">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>グアイ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>ゲンカイ</t>
+    </rPh>
+    <rPh sb="181" eb="182">
+      <t>タッ</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>ハレツ</t>
+    </rPh>
+    <rPh sb="193" eb="194">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="195" eb="197">
+      <t>フウセン</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>ハレツ</t>
+    </rPh>
+    <rPh sb="203" eb="204">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="205" eb="206">
+      <t>カ</t>
+    </rPh>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1109,24 +1088,29 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -1960,7 +1944,7 @@
     <row r="3" spans="1:21" ht="25.5" customHeight="1">
       <c r="A3" s="5"/>
       <c r="D3" s="37" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="38"/>
       <c r="F3" s="38"/>
@@ -1969,7 +1953,7 @@
       <c r="J3" s="5"/>
       <c r="L3" s="3"/>
       <c r="O3" s="37" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
@@ -2021,7 +2005,7 @@
       <c r="J6" s="5"/>
       <c r="L6" s="3"/>
       <c r="O6" s="40" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P6" s="41"/>
       <c r="Q6" s="41"/>
@@ -2042,13 +2026,13 @@
         <v>21</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G7" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="29" t="s">
         <v>22</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>23</v>
       </c>
       <c r="J7" s="5"/>
       <c r="L7" s="3"/>
@@ -2066,19 +2050,19 @@
         <v>2</v>
       </c>
       <c r="D8" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="F8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="G8" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="29" t="s">
         <v>26</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>28</v>
       </c>
       <c r="J8" s="5"/>
       <c r="L8" s="3"/>
@@ -2095,18 +2079,10 @@
       <c r="C9" s="14">
         <v>3</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>31</v>
-      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="16"/>
       <c r="J9" s="5"/>
       <c r="L9" s="3"/>
@@ -2240,7 +2216,7 @@
     <row r="17" spans="1:21" ht="26.25" customHeight="1">
       <c r="A17" s="5"/>
       <c r="D17" s="50" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E17" s="38"/>
       <c r="F17" s="38"/>
@@ -2310,7 +2286,7 @@
       <c r="J21" s="5"/>
       <c r="L21" s="3"/>
       <c r="O21" s="40" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="P21" s="41"/>
       <c r="Q21" s="41"/>
@@ -2360,14 +2336,14 @@
     <row r="26" spans="1:21" ht="12.5">
       <c r="L26" s="3"/>
       <c r="O26" s="49" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P26" s="41"/>
       <c r="Q26" s="41"/>
       <c r="R26" s="41"/>
       <c r="S26" s="42"/>
       <c r="T26" s="30" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="U26" s="22"/>
     </row>
